--- a/CardGame/Luban/Datas/PassiveSkill.xlsx
+++ b/CardGame/Luban/Datas/PassiveSkill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Group</t>
   </si>
   <si>
-    <t>*AutoAddBuff#default=null</t>
+    <t>*AddBuff#default=null</t>
   </si>
   <si>
     <t>##type</t>
@@ -49,7 +49,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>array,AutoAddBuffWarp</t>
+    <t>array,AddBuffWarp</t>
   </si>
   <si>
     <t>##</t>
@@ -88,7 +88,7 @@
     <t>ControlMod</t>
   </si>
   <si>
-    <t>EventValueWarp</t>
+    <t>*EventValueWarp</t>
   </si>
   <si>
     <t>BuffEventType</t>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>mFloat-0.7</t>
+  </si>
+  <si>
+    <t>mFloat-0.8</t>
+  </si>
+  <si>
+    <t>mFloat-0.9</t>
+  </si>
+  <si>
+    <t>PhysicsDefUp</t>
+  </si>
+  <si>
+    <t>PhysicalDefenseRatio</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1061,6 +1073,7 @@
     <col min="5" max="5" width="10.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="9.25833333333333" customWidth="1"/>
     <col min="7" max="7" width="9.85" customWidth="1"/>
+    <col min="9" max="9" width="17.2" customWidth="1"/>
     <col min="10" max="10" width="13.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="9.26666666666667" customWidth="1"/>
   </cols>
@@ -1227,52 +1240,292 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="10:11">
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="10:11">
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>10312</v>
+      </c>
+      <c r="C8">
+        <v>1031</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:11">
       <c r="B10">
-        <v>10312</v>
+        <v>10313</v>
       </c>
       <c r="C10">
         <v>1031</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>10314</v>
+      </c>
+      <c r="C12">
+        <v>1031</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14">
-        <v>10313</v>
+        <v>10315</v>
       </c>
       <c r="C14">
         <v>1031</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>10411</v>
+      </c>
+      <c r="C16">
+        <v>1041</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18">
-        <v>10314</v>
+        <v>10412</v>
       </c>
       <c r="C18">
-        <v>1031</v>
+        <v>1041</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>10413</v>
+      </c>
+      <c r="C20">
+        <v>1041</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22">
-        <v>10315</v>
+        <v>10414</v>
       </c>
       <c r="C22">
-        <v>1031</v>
+        <v>1041</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>10415</v>
+      </c>
+      <c r="C24">
+        <v>1041</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
